--- a/SP_Sklad/Rep/KABalance.xlsx
+++ b/SP_Sklad/Rep/KABalance.xlsx
@@ -747,8 +747,8 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="B2" s="3" t="str">
-        <f>CONCATENATE("за період з "&amp;"01.09.2000"," по "&amp;"30.09.2016")</f>
-        <v>за період з 01.09.2000 по 30.09.2016</v>
+        <f>CONCATENATE("за період з "&amp;"01.09.2015"," по "&amp;"30.09.2016")</f>
+        <v>за період з 01.09.2015 по 30.09.2016</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
